--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>26.83824466666667</v>
+        <v>0.09425133333333334</v>
       </c>
       <c r="H2">
-        <v>80.514734</v>
+        <v>0.282754</v>
       </c>
       <c r="I2">
-        <v>0.8882651037973995</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="J2">
-        <v>0.8882651037973996</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.448495</v>
+        <v>0.2807486666666667</v>
       </c>
       <c r="N2">
-        <v>1.345485</v>
+        <v>0.8422460000000001</v>
       </c>
       <c r="O2">
-        <v>0.05033609585745587</v>
+        <v>0.03211396410631209</v>
       </c>
       <c r="P2">
-        <v>0.05033609585745586</v>
+        <v>0.03211396410631208</v>
       </c>
       <c r="Q2">
-        <v>12.03681854177667</v>
+        <v>0.0264609361648889</v>
       </c>
       <c r="R2">
-        <v>108.33136687599</v>
+        <v>0.238148425484</v>
       </c>
       <c r="S2">
-        <v>0.04471179741157889</v>
+        <v>0.0008722129583842947</v>
       </c>
       <c r="T2">
-        <v>0.04471179741157889</v>
+        <v>0.0008722129583842944</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>26.83824466666667</v>
+        <v>0.09425133333333334</v>
       </c>
       <c r="H3">
-        <v>80.514734</v>
+        <v>0.282754</v>
       </c>
       <c r="I3">
-        <v>0.8882651037973995</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="J3">
-        <v>0.8882651037973996</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>1.834996</v>
       </c>
       <c r="O3">
-        <v>0.06864924882406573</v>
+        <v>0.06996648921957034</v>
       </c>
       <c r="P3">
-        <v>0.06864924882406571</v>
+        <v>0.06996648921957033</v>
       </c>
       <c r="Q3">
-        <v>16.41602387011822</v>
+        <v>0.05765027322044444</v>
       </c>
       <c r="R3">
-        <v>147.744214831064</v>
+        <v>0.518852458984</v>
       </c>
       <c r="S3">
-        <v>0.06097873213232225</v>
+        <v>0.001900284821516928</v>
       </c>
       <c r="T3">
-        <v>0.06097873213232224</v>
+        <v>0.001900284821516928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>26.83824466666667</v>
+        <v>0.09425133333333334</v>
       </c>
       <c r="H4">
-        <v>80.514734</v>
+        <v>0.282754</v>
       </c>
       <c r="I4">
-        <v>0.8882651037973995</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="J4">
-        <v>0.8882651037973996</v>
+        <v>0.02715992817009031</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>23.549542</v>
       </c>
       <c r="O4">
-        <v>0.8810146553184784</v>
+        <v>0.8979195466741177</v>
       </c>
       <c r="P4">
-        <v>0.8810146553184784</v>
+        <v>0.8979195466741176</v>
       </c>
       <c r="Q4">
-        <v>210.6761233279809</v>
+        <v>0.7398585776297779</v>
       </c>
       <c r="R4">
-        <v>1896.085109951828</v>
+        <v>6.658727198668001</v>
       </c>
       <c r="S4">
-        <v>0.7825745742534984</v>
+        <v>0.02438743039018909</v>
       </c>
       <c r="T4">
-        <v>0.7825745742534985</v>
+        <v>0.02438743039018908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.717033</v>
       </c>
       <c r="I5">
-        <v>0.04100753414354395</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="J5">
-        <v>0.04100753414354396</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.448495</v>
+        <v>0.2807486666666667</v>
       </c>
       <c r="N5">
-        <v>1.345485</v>
+        <v>0.8422460000000001</v>
       </c>
       <c r="O5">
-        <v>0.05033609585745587</v>
+        <v>0.03211396410631209</v>
       </c>
       <c r="P5">
-        <v>0.05033609585745586</v>
+        <v>0.03211396410631208</v>
       </c>
       <c r="Q5">
-        <v>0.555690238445</v>
+        <v>0.3478506862353333</v>
       </c>
       <c r="R5">
-        <v>5.001212146005</v>
+        <v>3.130656176118</v>
       </c>
       <c r="S5">
-        <v>0.002064159169527323</v>
+        <v>0.01146595397179898</v>
       </c>
       <c r="T5">
-        <v>0.002064159169527323</v>
+        <v>0.01146595397179898</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.717033</v>
       </c>
       <c r="I6">
-        <v>0.04100753414354395</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="J6">
-        <v>0.04100753414354396</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>1.834996</v>
       </c>
       <c r="O6">
-        <v>0.06864924882406573</v>
+        <v>0.06996648921957034</v>
       </c>
       <c r="P6">
-        <v>0.06864924882406571</v>
+        <v>0.06996648921957033</v>
       </c>
       <c r="Q6">
         <v>0.7578600763186665</v>
@@ -818,10 +818,10 @@
         <v>6.820740686867999</v>
       </c>
       <c r="S6">
-        <v>0.00281513641508152</v>
+        <v>0.02498080094703358</v>
       </c>
       <c r="T6">
-        <v>0.00281513641508152</v>
+        <v>0.02498080094703357</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.717033</v>
       </c>
       <c r="I7">
-        <v>0.04100753414354395</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="J7">
-        <v>0.04100753414354396</v>
+        <v>0.357039508851706</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>23.549542</v>
       </c>
       <c r="O7">
-        <v>0.8810146553184784</v>
+        <v>0.8979195466741177</v>
       </c>
       <c r="P7">
-        <v>0.8810146553184784</v>
+        <v>0.8979195466741176</v>
       </c>
       <c r="Q7">
         <v>9.726047194320666</v>
@@ -880,10 +880,10 @@
         <v>87.53442474888601</v>
       </c>
       <c r="S7">
-        <v>0.03612823855893511</v>
+        <v>0.3205927539328735</v>
       </c>
       <c r="T7">
-        <v>0.03612823855893512</v>
+        <v>0.3205927539328734</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>6.410918000000001</v>
       </c>
       <c r="I8">
-        <v>0.07072736205905639</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="J8">
-        <v>0.0707273620590564</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.448495</v>
+        <v>0.2807486666666667</v>
       </c>
       <c r="N8">
-        <v>1.345485</v>
+        <v>0.8422460000000001</v>
       </c>
       <c r="O8">
-        <v>0.05033609585745587</v>
+        <v>0.03211396410631209</v>
       </c>
       <c r="P8">
-        <v>0.05033609585745586</v>
+        <v>0.03211396410631208</v>
       </c>
       <c r="Q8">
-        <v>0.9584215561366668</v>
+        <v>0.5999522268697779</v>
       </c>
       <c r="R8">
-        <v>8.62579400523</v>
+        <v>5.399570041828</v>
       </c>
       <c r="S8">
-        <v>0.00356013927634965</v>
+        <v>0.01977579717612881</v>
       </c>
       <c r="T8">
-        <v>0.00356013927634965</v>
+        <v>0.01977579717612881</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>6.410918000000001</v>
       </c>
       <c r="I9">
-        <v>0.07072736205905639</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="J9">
-        <v>0.0707273620590564</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>1.834996</v>
       </c>
       <c r="O9">
-        <v>0.06864924882406573</v>
+        <v>0.06996648921957034</v>
       </c>
       <c r="P9">
-        <v>0.06864924882406571</v>
+        <v>0.06996648921957033</v>
       </c>
       <c r="Q9">
         <v>1.307112098480889</v>
@@ -1004,10 +1004,10 @@
         <v>11.764008886328</v>
       </c>
       <c r="S9">
-        <v>0.004855380276661948</v>
+        <v>0.04308540345101984</v>
       </c>
       <c r="T9">
-        <v>0.004855380276661948</v>
+        <v>0.04308540345101983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>6.410918000000001</v>
       </c>
       <c r="I10">
-        <v>0.07072736205905639</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="J10">
-        <v>0.0707273620590564</v>
+        <v>0.6158005629782037</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>23.549542</v>
       </c>
       <c r="O10">
-        <v>0.8810146553184784</v>
+        <v>0.8979195466741177</v>
       </c>
       <c r="P10">
-        <v>0.8810146553184784</v>
+        <v>0.8979195466741176</v>
       </c>
       <c r="Q10">
         <v>16.77490918883956</v>
@@ -1066,10 +1066,10 @@
         <v>150.974182699556</v>
       </c>
       <c r="S10">
-        <v>0.0623118425060448</v>
+        <v>0.5529393623510551</v>
       </c>
       <c r="T10">
-        <v>0.0623118425060448</v>
+        <v>0.5529393623510551</v>
       </c>
     </row>
   </sheetData>
